--- a/VersionRecords/Version withdraw/版本Bug和特性计划及评审表v3.4.2_捷豹组.xlsx
+++ b/VersionRecords/Version withdraw/版本Bug和特性计划及评审表v3.4.2_捷豹组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="3525" windowWidth="28695" windowHeight="14505" tabRatio="813"/>
+    <workbookView xWindow="29280" yWindow="3525" windowWidth="28695" windowHeight="14505" tabRatio="813" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -313,14 +312,6 @@
   </si>
   <si>
     <t>BS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东提现风控控制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -420,10 +411,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>partner</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>sysconfig.risk_MR_JE_01=50000</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -442,6 +429,14 @@
   <si>
     <t>打款延迟1小时</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner/papp/renter</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东租客提现风控控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1730,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1856,13 +1851,13 @@
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M2" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O2" s="47"/>
       <c r="P2" s="97"/>
@@ -1903,16 +1898,16 @@
         <v>42808</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O3" s="44"/>
       <c r="P3" s="39"/>
@@ -1932,13 +1927,13 @@
         <v>72</v>
       </c>
       <c r="D4" s="107" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>74</v>
@@ -1954,13 +1949,13 @@
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O4" s="44"/>
       <c r="P4" s="39"/>
@@ -5790,7 +5785,7 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="99" t="s">
         <v>76</v>
@@ -5800,13 +5795,13 @@
         <v>77</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="101" t="s">
         <v>78</v>
       </c>
       <c r="G2" s="102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" s="103" t="s">
         <v>79</v>
@@ -5815,22 +5810,22 @@
         <v>80</v>
       </c>
       <c r="J2" s="104" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K2" s="63" t="s">
         <v>81</v>
       </c>
       <c r="L2" s="104" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M2" s="104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N2" s="104" t="s">
         <v>82</v>
       </c>
       <c r="O2" s="105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P2" s="106" t="s">
         <v>80</v>
@@ -5842,7 +5837,7 @@
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="99" t="s">
         <v>76</v>
@@ -5852,13 +5847,13 @@
         <v>77</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="101" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H3" s="103" t="s">
         <v>79</v>
@@ -5867,22 +5862,22 @@
         <v>80</v>
       </c>
       <c r="J3" s="104" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K3" s="63" t="s">
         <v>81</v>
       </c>
       <c r="L3" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="104" t="s">
         <v>105</v>
-      </c>
-      <c r="M3" s="104" t="s">
-        <v>107</v>
       </c>
       <c r="N3" s="104" t="s">
         <v>82</v>
       </c>
       <c r="O3" s="105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P3" s="106" t="s">
         <v>80</v>
@@ -5894,7 +5889,7 @@
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="99" t="s">
         <v>76</v>
@@ -5904,13 +5899,13 @@
         <v>77</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="101" t="s">
         <v>78</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="103" t="s">
         <v>79</v>
@@ -5919,22 +5914,22 @@
         <v>80</v>
       </c>
       <c r="J4" s="104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K4" s="63" t="s">
         <v>81</v>
       </c>
       <c r="L4" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="104" t="s">
         <v>104</v>
-      </c>
-      <c r="M4" s="104" t="s">
-        <v>106</v>
       </c>
       <c r="N4" s="104" t="s">
         <v>82</v>
       </c>
       <c r="O4" s="105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P4" s="106" t="s">
         <v>80</v>
@@ -6166,7 +6161,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6257,14 +6252,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="12" t="s">
-        <v>110</v>
+      <c r="D4" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>67</v>
@@ -6273,33 +6268,33 @@
         <v>68</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L4" s="101" t="s">
         <v>78</v>
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="33">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="12" t="s">
-        <v>110</v>
+      <c r="D5" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>67</v>
@@ -6308,19 +6303,19 @@
         <v>68</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L5" s="101" t="s">
         <v>78</v>
@@ -6526,7 +6521,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6617,14 +6612,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="12" t="s">
-        <v>110</v>
+      <c r="D4" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>67</v>
@@ -6633,33 +6628,33 @@
         <v>68</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L4" s="101" t="s">
         <v>78</v>
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="33">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="12" t="s">
-        <v>110</v>
+      <c r="D5" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>67</v>
@@ -6668,19 +6663,19 @@
         <v>68</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L5" s="101" t="s">
         <v>78</v>
@@ -6886,7 +6881,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6977,14 +6972,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="12" t="s">
-        <v>110</v>
+      <c r="D4" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>67</v>
@@ -6993,33 +6988,33 @@
         <v>68</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L4" s="101" t="s">
         <v>78</v>
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="33">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="12" t="s">
-        <v>110</v>
+      <c r="D5" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>67</v>
@@ -7028,19 +7023,19 @@
         <v>68</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L5" s="101" t="s">
         <v>78</v>
@@ -7232,6 +7227,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7244,8 +7240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7341,11 +7337,11 @@
     <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="12" t="s">
-        <v>110</v>
+      <c r="D4" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>67</v>
@@ -7354,19 +7350,19 @@
         <v>68</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L4" s="101" t="s">
         <v>78</v>
@@ -7376,11 +7372,11 @@
     <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="12" t="s">
-        <v>110</v>
+      <c r="D5" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>67</v>
@@ -7389,19 +7385,19 @@
         <v>68</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L5" s="101" t="s">
         <v>78</v>
